--- a/data/outputs/OR_altmetric/6.xlsx
+++ b/data/outputs/OR_altmetric/6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE30"/>
+  <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1521,6 +1532,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1770,6 +1784,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2025,6 +2042,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2533,6 +2556,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2780,6 +2806,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3280,6 +3312,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3537,6 +3572,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3786,6 +3824,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4031,6 +4072,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4288,6 +4332,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4537,6 +4584,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4792,6 +4842,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5280,6 +5336,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5527,6 +5586,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5770,6 +5832,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6015,6 +6080,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6264,6 +6332,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6513,6 +6584,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6762,6 +6836,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7009,6 +7086,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7252,6 +7332,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7501,6 +7584,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7746,6 +7832,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7995,6 +8084,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
